--- a/paper/tables/sectors.xlsx
+++ b/paper/tables/sectors.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hannahnesser/Documents/Harvard/Research/TROPOMI_Inversion/paper/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5FFE951-B7B9-CB41-9493-72995A945317}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5CD0854-DBDA-9440-8B52-3EA372F91753}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15600" yWindow="460" windowWidth="22740" windowHeight="20540" activeTab="5" xr2:uid="{95ADAA5D-9913-4C42-80C5-C44B6108DEC1}"/>
+    <workbookView xWindow="10860" yWindow="460" windowWidth="22740" windowHeight="20540" activeTab="5" xr2:uid="{95ADAA5D-9913-4C42-80C5-C44B6108DEC1}"/>
   </bookViews>
   <sheets>
     <sheet name="raw" sheetId="1" r:id="rId1"/>
@@ -1058,10 +1058,10 @@
             <v>10.410589499475099</v>
           </cell>
           <cell r="C19">
-            <v>0.26265478156403699</v>
+            <v>0.26265478156401401</v>
           </cell>
           <cell r="D19">
-            <v>0.28297074745584999</v>
+            <v>0.28297074745587297</v>
           </cell>
         </row>
         <row r="20">
@@ -1103,7 +1103,7 @@
             <v>0.129588636718481</v>
           </cell>
           <cell r="D22">
-            <v>8.7392722509704701E-2</v>
+            <v>8.7392722509704507E-2</v>
           </cell>
         </row>
         <row r="23">
@@ -1167,13 +1167,13 @@
             <v>post_sub_ong</v>
           </cell>
           <cell r="B27">
-            <v>9.2772895915259994</v>
+            <v>9.2772895915259692</v>
           </cell>
           <cell r="C27">
-            <v>0.67226365196220195</v>
+            <v>0.67226365196217897</v>
           </cell>
           <cell r="D27">
-            <v>0.64088115760048703</v>
+            <v>0.64088115760051001</v>
           </cell>
         </row>
         <row r="28">
@@ -1212,10 +1212,10 @@
             <v>0.50474323471834803</v>
           </cell>
           <cell r="C30">
-            <v>7.8156575735062406E-2</v>
+            <v>7.8156575735062503E-2</v>
           </cell>
           <cell r="D30">
-            <v>3.5459187088264399E-2</v>
+            <v>3.5459187088264302E-2</v>
           </cell>
         </row>
         <row r="31">
@@ -1257,7 +1257,7 @@
             <v>0.118447011963427</v>
           </cell>
           <cell r="D33">
-            <v>0.114169964707868</v>
+            <v>0.114169964707869</v>
           </cell>
         </row>
       </sheetData>
@@ -2937,7 +2937,7 @@
   <dimension ref="A1:L33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3770,19 +3770,19 @@
       </c>
       <c r="C19">
         <f>[1]CONUS!C19</f>
-        <v>0.26265478156403699</v>
+        <v>0.26265478156401401</v>
       </c>
       <c r="D19">
         <f>[1]CONUS!D19</f>
-        <v>0.28297074745584999</v>
+        <v>0.28297074745587297</v>
       </c>
       <c r="E19">
         <f t="shared" si="0"/>
-        <v>10.147934717911063</v>
+        <v>10.147934717911085</v>
       </c>
       <c r="F19">
         <f t="shared" si="1"/>
-        <v>10.69356024693095</v>
+        <v>10.693560246930973</v>
       </c>
       <c r="G19">
         <v>0.91457900000000003</v>
@@ -3906,7 +3906,7 @@
       </c>
       <c r="D22">
         <f>[1]CONUS!D22</f>
-        <v>8.7392722509704701E-2</v>
+        <v>8.7392722509704507E-2</v>
       </c>
       <c r="E22">
         <f t="shared" si="0"/>
@@ -3914,7 +3914,7 @@
       </c>
       <c r="F22">
         <f t="shared" si="1"/>
-        <v>0.70903340909700763</v>
+        <v>0.70903340909700752</v>
       </c>
       <c r="G22">
         <v>0.32885399999999998</v>
@@ -4121,23 +4121,23 @@
       </c>
       <c r="B27">
         <f>[1]CONUS!B27</f>
-        <v>9.2772895915259994</v>
+        <v>9.2772895915259692</v>
       </c>
       <c r="C27">
         <f>[1]CONUS!C27</f>
-        <v>0.67226365196220195</v>
+        <v>0.67226365196217897</v>
       </c>
       <c r="D27">
         <f>[1]CONUS!D27</f>
-        <v>0.64088115760048703</v>
+        <v>0.64088115760051001</v>
       </c>
       <c r="E27">
         <f t="shared" si="0"/>
-        <v>8.6050259395637969</v>
+        <v>8.6050259395637898</v>
       </c>
       <c r="F27">
         <f t="shared" si="1"/>
-        <v>9.918170749126487</v>
+        <v>9.9181707491264799</v>
       </c>
       <c r="G27">
         <v>0</v>
@@ -4150,15 +4150,15 @@
       </c>
       <c r="J27" s="1">
         <f>B27/$B19</f>
-        <v>0.89113969886083388</v>
+        <v>0.891139698860831</v>
       </c>
       <c r="K27" s="1">
         <f t="shared" ref="K27:L33" si="5">E27/$B19</f>
-        <v>0.82656471470685322</v>
+        <v>0.82656471470685244</v>
       </c>
       <c r="L27" s="1">
         <f t="shared" si="5"/>
-        <v>0.95270020488528151</v>
+        <v>0.95270020488528073</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
@@ -4266,15 +4266,15 @@
       </c>
       <c r="C30">
         <f>[1]CONUS!C30</f>
-        <v>7.8156575735062406E-2</v>
+        <v>7.8156575735062503E-2</v>
       </c>
       <c r="D30">
         <f>[1]CONUS!D30</f>
-        <v>3.5459187088264399E-2</v>
+        <v>3.5459187088264302E-2</v>
       </c>
       <c r="E30">
         <f t="shared" ref="E30:E33" si="7">B30-C30</f>
-        <v>0.42658665898328563</v>
+        <v>0.42658665898328552</v>
       </c>
       <c r="F30">
         <f t="shared" ref="F30:F33" si="8">B30+D30</f>
@@ -4295,7 +4295,7 @@
       </c>
       <c r="K30" s="1">
         <f t="shared" si="5"/>
-        <v>0.68622705718502863</v>
+        <v>0.68622705718502841</v>
       </c>
       <c r="L30" s="1">
         <f t="shared" si="5"/>
@@ -4411,7 +4411,7 @@
       </c>
       <c r="D33">
         <f>[1]CONUS!D33</f>
-        <v>0.114169964707868</v>
+        <v>0.114169964707869</v>
       </c>
       <c r="E33">
         <f t="shared" si="7"/>
@@ -4419,7 +4419,7 @@
       </c>
       <c r="F33">
         <f t="shared" si="8"/>
-        <v>0.61648110950873103</v>
+        <v>0.61648110950873203</v>
       </c>
       <c r="G33">
         <v>0</v>
@@ -4440,7 +4440,7 @@
       </c>
       <c r="L33" s="1">
         <f t="shared" si="5"/>
-        <v>0.5274263681928979</v>
+        <v>0.52742636819289879</v>
       </c>
     </row>
   </sheetData>

--- a/paper/tables/sectors.xlsx
+++ b/paper/tables/sectors.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hannahnesser/Documents/Harvard/Research/TROPOMI_Inversion/paper/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5CD0854-DBDA-9440-8B52-3EA372F91753}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C109E656-9FFF-4146-B030-EC4E270E3FC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10860" yWindow="460" windowWidth="22740" windowHeight="20540" activeTab="5" xr2:uid="{95ADAA5D-9913-4C42-80C5-C44B6108DEC1}"/>
+    <workbookView xWindow="10860" yWindow="500" windowWidth="22740" windowHeight="20500" activeTab="5" xr2:uid="{95ADAA5D-9913-4C42-80C5-C44B6108DEC1}"/>
   </bookViews>
   <sheets>
     <sheet name="raw" sheetId="1" r:id="rId1"/>
@@ -633,7 +633,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -775,6 +775,7 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -794,7 +795,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="CONUS"/>
@@ -1267,8 +1268,11 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="epa_ghgi_2022"/>
     </sheetNames>
@@ -1876,8 +1880,11 @@
 </file>
 
 <file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="epa_ghgi_2023"/>
     </sheetNames>
@@ -1955,21 +1962,6 @@
           <cell r="I2">
             <v>1.268357143</v>
           </cell>
-          <cell r="J2">
-            <v>1.3408820000000001E-3</v>
-          </cell>
-          <cell r="K2">
-            <v>1.5023059999999999E-3</v>
-          </cell>
-          <cell r="L2">
-            <v>1.0180721E-2</v>
-          </cell>
-          <cell r="M2">
-            <v>1.1406339E-2</v>
-          </cell>
-          <cell r="N2">
-            <v>7.0335199270000004</v>
-          </cell>
         </row>
         <row r="3">
           <cell r="A3" t="str">
@@ -1999,21 +1991,6 @@
           <cell r="I3">
             <v>0.46928571400000002</v>
           </cell>
-          <cell r="J3">
-            <v>2.8E-5</v>
-          </cell>
-          <cell r="K3">
-            <v>3.1300000000000002E-5</v>
-          </cell>
-          <cell r="L3">
-            <v>5.3562200000000003E-4</v>
-          </cell>
-          <cell r="M3">
-            <v>5.9949500000000002E-4</v>
-          </cell>
-          <cell r="N3">
-            <v>2.3457977369999998</v>
-          </cell>
         </row>
         <row r="4">
           <cell r="A4" t="str">
@@ -2043,21 +2020,6 @@
           <cell r="I4">
             <v>1.1754285710000001</v>
           </cell>
-          <cell r="J4">
-            <v>1.8473119999999999E-2</v>
-          </cell>
-          <cell r="K4">
-            <v>2.0768849999999998E-2</v>
-          </cell>
-          <cell r="L4">
-            <v>5.7967999999999995E-4</v>
-          </cell>
-          <cell r="M4">
-            <v>6.5171900000000004E-4</v>
-          </cell>
-          <cell r="N4">
-            <v>6.892865145</v>
-          </cell>
         </row>
         <row r="5">
           <cell r="A5" t="str">
@@ -2087,21 +2049,6 @@
           <cell r="I5">
             <v>0.53357142899999999</v>
           </cell>
-          <cell r="J5">
-            <v>2.0330000000000001E-4</v>
-          </cell>
-          <cell r="K5">
-            <v>2.4105599999999999E-4</v>
-          </cell>
-          <cell r="L5">
-            <v>0</v>
-          </cell>
-          <cell r="M5">
-            <v>0</v>
-          </cell>
-          <cell r="N5">
-            <v>0.29618751599999998</v>
-          </cell>
         </row>
         <row r="6">
           <cell r="A6" t="str">
@@ -2131,21 +2078,6 @@
           <cell r="I6">
             <v>0.32089285699999998</v>
           </cell>
-          <cell r="J6">
-            <v>2.667282E-2</v>
-          </cell>
-          <cell r="K6">
-            <v>3.9547077E-2</v>
-          </cell>
-          <cell r="L6">
-            <v>2.7603E-5</v>
-          </cell>
-          <cell r="M6">
-            <v>4.0899999999999998E-5</v>
-          </cell>
-          <cell r="N6">
-            <v>2.0996977110000001</v>
-          </cell>
         </row>
         <row r="7">
           <cell r="A7" t="str">
@@ -2175,21 +2107,6 @@
           <cell r="I7">
             <v>1.197857143</v>
           </cell>
-          <cell r="J7">
-            <v>1.921227E-2</v>
-          </cell>
-          <cell r="K7">
-            <v>2.1816749999999999E-2</v>
-          </cell>
-          <cell r="L7">
-            <v>1.359549E-2</v>
-          </cell>
-          <cell r="M7">
-            <v>1.5438541E-2</v>
-          </cell>
-          <cell r="N7">
-            <v>4.5698875660000002</v>
-          </cell>
         </row>
         <row r="8">
           <cell r="A8" t="str">
@@ -2219,21 +2136,6 @@
           <cell r="I8">
             <v>0.39750000000000002</v>
           </cell>
-          <cell r="J8">
-            <v>5.4816999999999995E-4</v>
-          </cell>
-          <cell r="K8">
-            <v>6.1293299999999997E-4</v>
-          </cell>
-          <cell r="L8">
-            <v>0</v>
-          </cell>
-          <cell r="M8">
-            <v>0</v>
-          </cell>
-          <cell r="N8">
-            <v>1.8922442100000001</v>
-          </cell>
         </row>
         <row r="9">
           <cell r="A9" t="str">
@@ -2263,21 +2165,6 @@
           <cell r="I9">
             <v>4.9500000000000002E-2</v>
           </cell>
-          <cell r="J9">
-            <v>0</v>
-          </cell>
-          <cell r="K9">
-            <v>0</v>
-          </cell>
-          <cell r="L9">
-            <v>0</v>
-          </cell>
-          <cell r="M9">
-            <v>0</v>
-          </cell>
-          <cell r="N9">
-            <v>0.235714286</v>
-          </cell>
         </row>
         <row r="10">
           <cell r="A10" t="str">
@@ -2307,21 +2194,6 @@
           <cell r="I10">
             <v>0.24228571400000001</v>
           </cell>
-          <cell r="J10">
-            <v>1.07891E-3</v>
-          </cell>
-          <cell r="K10">
-            <v>1.2636959999999999E-3</v>
-          </cell>
-          <cell r="L10">
-            <v>2.0542799999999999E-3</v>
-          </cell>
-          <cell r="M10">
-            <v>2.4061180000000001E-3</v>
-          </cell>
-          <cell r="N10">
-            <v>0.75347304299999995</v>
-          </cell>
         </row>
         <row r="11">
           <cell r="A11" t="str">
@@ -2351,21 +2223,6 @@
           <cell r="I11">
             <v>0.45267857099999997</v>
           </cell>
-          <cell r="J11">
-            <v>0</v>
-          </cell>
-          <cell r="K11">
-            <v>0</v>
-          </cell>
-          <cell r="L11">
-            <v>0</v>
-          </cell>
-          <cell r="M11">
-            <v>0</v>
-          </cell>
-          <cell r="N11">
-            <v>0.60357142900000005</v>
-          </cell>
         </row>
         <row r="12">
           <cell r="A12" t="str">
@@ -2395,21 +2252,6 @@
           <cell r="I12">
             <v>0.44450000000000001</v>
           </cell>
-          <cell r="J12">
-            <v>2.57479E-3</v>
-          </cell>
-          <cell r="K12">
-            <v>2.8673800000000001E-3</v>
-          </cell>
-          <cell r="L12">
-            <v>1.2066999999999999E-4</v>
-          </cell>
-          <cell r="M12">
-            <v>1.3438299999999999E-4</v>
-          </cell>
-          <cell r="N12">
-            <v>0.34699823800000001</v>
-          </cell>
         </row>
         <row r="13">
           <cell r="A13" t="str">
@@ -2439,21 +2281,6 @@
           <cell r="I13">
             <v>3.0035714000000002E-2</v>
           </cell>
-          <cell r="J13">
-            <v>3.7681999999999999E-4</v>
-          </cell>
-          <cell r="K13">
-            <v>4.3711100000000001E-4</v>
-          </cell>
-          <cell r="L13">
-            <v>7.0629000000000004E-4</v>
-          </cell>
-          <cell r="M13">
-            <v>8.1929599999999996E-4</v>
-          </cell>
-          <cell r="N13">
-            <v>0.10231502100000001</v>
-          </cell>
         </row>
         <row r="14">
           <cell r="A14" t="str">
@@ -2483,21 +2310,6 @@
           <cell r="I14">
             <v>2.8571429999999999E-3</v>
           </cell>
-          <cell r="J14">
-            <v>0</v>
-          </cell>
-          <cell r="K14">
-            <v>0</v>
-          </cell>
-          <cell r="L14">
-            <v>0</v>
-          </cell>
-          <cell r="M14">
-            <v>0</v>
-          </cell>
-          <cell r="N14">
-            <v>1.7857142999999999E-2</v>
-          </cell>
         </row>
         <row r="15">
           <cell r="A15" t="str">
@@ -2527,21 +2339,6 @@
           <cell r="I15">
             <v>6.8571429999999996E-3</v>
           </cell>
-          <cell r="J15">
-            <v>0</v>
-          </cell>
-          <cell r="K15">
-            <v>0</v>
-          </cell>
-          <cell r="L15">
-            <v>0</v>
-          </cell>
-          <cell r="M15">
-            <v>0</v>
-          </cell>
-          <cell r="N15">
-            <v>1.4285714E-2</v>
-          </cell>
         </row>
         <row r="16">
           <cell r="A16" t="str">
@@ -2571,21 +2368,6 @@
           <cell r="I16">
             <v>3.8571429999999999E-3</v>
           </cell>
-          <cell r="J16">
-            <v>0</v>
-          </cell>
-          <cell r="K16">
-            <v>0</v>
-          </cell>
-          <cell r="L16">
-            <v>0</v>
-          </cell>
-          <cell r="M16">
-            <v>0</v>
-          </cell>
-          <cell r="N16">
-            <v>7.1428569999999999E-3</v>
-          </cell>
         </row>
         <row r="17">
           <cell r="A17" t="str">
@@ -2614,21 +2396,6 @@
           </cell>
           <cell r="I17">
             <v>5.1785713999999997E-2</v>
-          </cell>
-          <cell r="J17">
-            <v>0</v>
-          </cell>
-          <cell r="K17">
-            <v>0</v>
-          </cell>
-          <cell r="L17">
-            <v>0</v>
-          </cell>
-          <cell r="M17">
-            <v>0</v>
-          </cell>
-          <cell r="N17">
-            <v>8.9285714000000002E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -5529,7 +5296,7 @@
   <dimension ref="A1:P17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M25" sqref="M25"/>
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5636,24 +5403,19 @@
         <v>1.268357143</v>
       </c>
       <c r="J2">
-        <f>[3]epa_ghgi_2023!J2</f>
         <v>1.3408820000000001E-3</v>
       </c>
       <c r="K2">
-        <f>[3]epa_ghgi_2023!K2</f>
-        <v>1.5023059999999999E-3</v>
+        <v>1.501788E-3</v>
       </c>
       <c r="L2">
-        <f>[3]epa_ghgi_2023!L2</f>
         <v>1.0180721E-2</v>
       </c>
       <c r="M2">
-        <f>[3]epa_ghgi_2023!M2</f>
-        <v>1.1406339E-2</v>
+        <v>1.1402407999999999E-2</v>
       </c>
       <c r="N2">
-        <f>[3]epa_ghgi_2023!N2</f>
-        <v>7.0335199270000004</v>
+        <v>7.0335243749999998</v>
       </c>
       <c r="O2">
         <f>H2^2</f>
@@ -5701,25 +5463,20 @@
         <f>[3]epa_ghgi_2023!I3</f>
         <v>0.46928571400000002</v>
       </c>
-      <c r="J3">
-        <f>[3]epa_ghgi_2023!J3</f>
+      <c r="J3" s="55">
         <v>2.8E-5</v>
       </c>
-      <c r="K3">
-        <f>[3]epa_ghgi_2023!K3</f>
-        <v>3.1300000000000002E-5</v>
+      <c r="K3" s="55">
+        <v>3.1399999999999998E-5</v>
       </c>
       <c r="L3">
-        <f>[3]epa_ghgi_2023!L3</f>
         <v>5.3562200000000003E-4</v>
       </c>
       <c r="M3">
-        <f>[3]epa_ghgi_2023!M3</f>
-        <v>5.9949500000000002E-4</v>
+        <v>5.9989600000000004E-4</v>
       </c>
       <c r="N3">
-        <f>[3]epa_ghgi_2023!N3</f>
-        <v>2.3457977369999998</v>
+        <v>2.345797272</v>
       </c>
       <c r="O3">
         <f t="shared" ref="O3:O17" si="0">H3^2</f>
@@ -5768,24 +5525,19 @@
         <v>1.1754285710000001</v>
       </c>
       <c r="J4">
-        <f>[3]epa_ghgi_2023!J4</f>
         <v>1.8473119999999999E-2</v>
       </c>
       <c r="K4">
-        <f>[3]epa_ghgi_2023!K4</f>
-        <v>2.0768849999999998E-2</v>
+        <v>1.9627454999999999E-2</v>
       </c>
       <c r="L4">
-        <f>[3]epa_ghgi_2023!L4</f>
         <v>5.7967999999999995E-4</v>
       </c>
       <c r="M4">
-        <f>[3]epa_ghgi_2023!M4</f>
-        <v>6.5171900000000004E-4</v>
+        <v>6.4017100000000003E-4</v>
       </c>
       <c r="N4">
-        <f>[3]epa_ghgi_2023!N4</f>
-        <v>6.892865145</v>
+        <v>6.8940180870000001</v>
       </c>
       <c r="O4">
         <f t="shared" si="0"/>
@@ -5834,24 +5586,19 @@
         <v>0.53357142899999999</v>
       </c>
       <c r="J5">
-        <f>[3]epa_ghgi_2023!J5</f>
         <v>2.0330000000000001E-4</v>
       </c>
       <c r="K5">
-        <f>[3]epa_ghgi_2023!K5</f>
-        <v>2.4105599999999999E-4</v>
+        <v>2.10368E-4</v>
       </c>
       <c r="L5">
-        <f>[3]epa_ghgi_2023!L5</f>
         <v>0</v>
       </c>
       <c r="M5">
-        <f>[3]epa_ghgi_2023!M5</f>
         <v>0</v>
       </c>
       <c r="N5">
-        <f>[3]epa_ghgi_2023!N5</f>
-        <v>0.29618751599999998</v>
+        <v>0.29621820300000001</v>
       </c>
       <c r="O5">
         <f t="shared" si="0"/>
@@ -5900,24 +5647,19 @@
         <v>0.32089285699999998</v>
       </c>
       <c r="J6">
-        <f>[3]epa_ghgi_2023!J6</f>
         <v>2.667282E-2</v>
       </c>
       <c r="K6">
-        <f>[3]epa_ghgi_2023!K6</f>
-        <v>3.9547077E-2</v>
+        <v>2.4966077E-2</v>
       </c>
       <c r="L6">
-        <f>[3]epa_ghgi_2023!L6</f>
         <v>2.7603E-5</v>
       </c>
-      <c r="M6">
-        <f>[3]epa_ghgi_2023!M6</f>
-        <v>4.0899999999999998E-5</v>
+      <c r="M6" s="55">
+        <v>3.0899999999999999E-5</v>
       </c>
       <c r="N6">
-        <f>[3]epa_ghgi_2023!N6</f>
-        <v>2.0996977110000001</v>
+        <v>2.114288717</v>
       </c>
       <c r="O6">
         <f t="shared" si="0"/>
@@ -5966,24 +5708,19 @@
         <v>1.197857143</v>
       </c>
       <c r="J7">
-        <f>[3]epa_ghgi_2023!J7</f>
         <v>1.921227E-2</v>
       </c>
       <c r="K7">
-        <f>[3]epa_ghgi_2023!K7</f>
-        <v>2.1816749999999999E-2</v>
+        <v>2.1615466999999999E-2</v>
       </c>
       <c r="L7">
-        <f>[3]epa_ghgi_2023!L7</f>
         <v>1.359549E-2</v>
       </c>
       <c r="M7">
-        <f>[3]epa_ghgi_2023!M7</f>
-        <v>1.5438541E-2</v>
+        <v>1.5684756000000001E-2</v>
       </c>
       <c r="N7">
-        <f>[3]epa_ghgi_2023!N7</f>
-        <v>4.5698875660000002</v>
+        <v>4.5698426330000004</v>
       </c>
       <c r="O7">
         <f t="shared" si="0"/>
@@ -6032,24 +5769,19 @@
         <v>0.39750000000000002</v>
       </c>
       <c r="J8">
-        <f>[3]epa_ghgi_2023!J8</f>
         <v>5.4816999999999995E-4</v>
       </c>
       <c r="K8">
-        <f>[3]epa_ghgi_2023!K8</f>
-        <v>6.1293299999999997E-4</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <f>[3]epa_ghgi_2023!L8</f>
         <v>0</v>
       </c>
       <c r="M8">
-        <f>[3]epa_ghgi_2023!M8</f>
         <v>0</v>
       </c>
       <c r="N8">
-        <f>[3]epa_ghgi_2023!N8</f>
-        <v>1.8922442100000001</v>
+        <v>1.8928571430000001</v>
       </c>
       <c r="O8">
         <f t="shared" si="0"/>
@@ -6098,24 +5830,19 @@
         <v>4.9500000000000002E-2</v>
       </c>
       <c r="J9">
-        <f>[3]epa_ghgi_2023!J9</f>
         <v>0</v>
       </c>
       <c r="K9">
-        <f>[3]epa_ghgi_2023!K9</f>
-        <v>0</v>
+        <v>6.1394499999999996E-4</v>
       </c>
       <c r="L9">
-        <f>[3]epa_ghgi_2023!L9</f>
         <v>0</v>
       </c>
       <c r="M9">
-        <f>[3]epa_ghgi_2023!M9</f>
         <v>0</v>
       </c>
       <c r="N9">
-        <f>[3]epa_ghgi_2023!N9</f>
-        <v>0.235714286</v>
+        <v>0.23510034099999999</v>
       </c>
       <c r="O9">
         <f t="shared" si="0"/>
@@ -6164,24 +5891,19 @@
         <v>0.24228571400000001</v>
       </c>
       <c r="J10">
-        <f>[3]epa_ghgi_2023!J10</f>
         <v>1.07891E-3</v>
       </c>
       <c r="K10">
-        <f>[3]epa_ghgi_2023!K10</f>
-        <v>1.2636959999999999E-3</v>
+        <v>9.1906099999999999E-4</v>
       </c>
       <c r="L10">
-        <f>[3]epa_ghgi_2023!L10</f>
         <v>2.0542799999999999E-3</v>
       </c>
       <c r="M10">
-        <f>[3]epa_ghgi_2023!M10</f>
-        <v>2.4061180000000001E-3</v>
+        <v>3.2264540000000001E-3</v>
       </c>
       <c r="N10">
-        <f>[3]epa_ghgi_2023!N10</f>
-        <v>0.75347304299999995</v>
+        <v>0.75299734200000001</v>
       </c>
       <c r="O10">
         <f t="shared" si="0"/>
@@ -6230,23 +5952,18 @@
         <v>0.45267857099999997</v>
       </c>
       <c r="J11">
-        <f>[3]epa_ghgi_2023!J11</f>
         <v>0</v>
       </c>
       <c r="K11">
-        <f>[3]epa_ghgi_2023!K11</f>
         <v>0</v>
       </c>
       <c r="L11">
-        <f>[3]epa_ghgi_2023!L11</f>
         <v>0</v>
       </c>
       <c r="M11">
-        <f>[3]epa_ghgi_2023!M11</f>
         <v>0</v>
       </c>
       <c r="N11">
-        <f>[3]epa_ghgi_2023!N11</f>
         <v>0.60357142900000005</v>
       </c>
       <c r="O11">
@@ -6296,24 +6013,19 @@
         <v>0.44450000000000001</v>
       </c>
       <c r="J12">
-        <f>[3]epa_ghgi_2023!J12</f>
         <v>2.57479E-3</v>
       </c>
       <c r="K12">
-        <f>[3]epa_ghgi_2023!K12</f>
-        <v>2.8673800000000001E-3</v>
+        <v>2.8875210000000001E-3</v>
       </c>
       <c r="L12">
-        <f>[3]epa_ghgi_2023!L12</f>
         <v>1.2066999999999999E-4</v>
       </c>
       <c r="M12">
-        <f>[3]epa_ghgi_2023!M12</f>
-        <v>1.3438299999999999E-4</v>
+        <v>1.3518100000000001E-4</v>
       </c>
       <c r="N12">
-        <f>[3]epa_ghgi_2023!N12</f>
-        <v>0.34699823800000001</v>
+        <v>0.34697729799999999</v>
       </c>
       <c r="O12">
         <f t="shared" si="0"/>
@@ -6362,24 +6074,19 @@
         <v>3.0035714000000002E-2</v>
       </c>
       <c r="J13">
-        <f>[3]epa_ghgi_2023!J13</f>
         <v>3.7681999999999999E-4</v>
       </c>
       <c r="K13">
-        <f>[3]epa_ghgi_2023!K13</f>
-        <v>4.3711100000000001E-4</v>
+        <v>4.3762899999999998E-4</v>
       </c>
       <c r="L13">
-        <f>[3]epa_ghgi_2023!L13</f>
         <v>7.0629000000000004E-4</v>
       </c>
       <c r="M13">
-        <f>[3]epa_ghgi_2023!M13</f>
-        <v>8.1929599999999996E-4</v>
+        <v>8.1225999999999998E-4</v>
       </c>
       <c r="N13">
-        <f>[3]epa_ghgi_2023!N13</f>
-        <v>0.10231502100000001</v>
+        <v>0.10232154</v>
       </c>
       <c r="O13">
         <f t="shared" si="0"/>
@@ -6428,23 +6135,18 @@
         <v>2.8571429999999999E-3</v>
       </c>
       <c r="J14">
-        <f>[3]epa_ghgi_2023!J14</f>
         <v>0</v>
       </c>
       <c r="K14">
-        <f>[3]epa_ghgi_2023!K14</f>
         <v>0</v>
       </c>
       <c r="L14">
-        <f>[3]epa_ghgi_2023!L14</f>
         <v>0</v>
       </c>
       <c r="M14">
-        <f>[3]epa_ghgi_2023!M14</f>
         <v>0</v>
       </c>
       <c r="N14">
-        <f>[3]epa_ghgi_2023!N14</f>
         <v>1.7857142999999999E-2</v>
       </c>
       <c r="O14">
@@ -6494,23 +6196,18 @@
         <v>6.8571429999999996E-3</v>
       </c>
       <c r="J15">
-        <f>[3]epa_ghgi_2023!J15</f>
         <v>0</v>
       </c>
       <c r="K15">
-        <f>[3]epa_ghgi_2023!K15</f>
         <v>0</v>
       </c>
       <c r="L15">
-        <f>[3]epa_ghgi_2023!L15</f>
         <v>0</v>
       </c>
       <c r="M15">
-        <f>[3]epa_ghgi_2023!M15</f>
         <v>0</v>
       </c>
       <c r="N15">
-        <f>[3]epa_ghgi_2023!N15</f>
         <v>1.4285714E-2</v>
       </c>
       <c r="O15">
@@ -6560,23 +6257,18 @@
         <v>3.8571429999999999E-3</v>
       </c>
       <c r="J16">
-        <f>[3]epa_ghgi_2023!J16</f>
         <v>0</v>
       </c>
       <c r="K16">
-        <f>[3]epa_ghgi_2023!K16</f>
         <v>0</v>
       </c>
       <c r="L16">
-        <f>[3]epa_ghgi_2023!L16</f>
         <v>0</v>
       </c>
       <c r="M16">
-        <f>[3]epa_ghgi_2023!M16</f>
         <v>0</v>
       </c>
       <c r="N16">
-        <f>[3]epa_ghgi_2023!N16</f>
         <v>7.1428569999999999E-3</v>
       </c>
       <c r="O16">
@@ -6626,23 +6318,18 @@
         <v>5.1785713999999997E-2</v>
       </c>
       <c r="J17">
-        <f>[3]epa_ghgi_2023!J17</f>
         <v>0</v>
       </c>
       <c r="K17">
-        <f>[3]epa_ghgi_2023!K17</f>
         <v>0</v>
       </c>
       <c r="L17">
-        <f>[3]epa_ghgi_2023!L17</f>
         <v>0</v>
       </c>
       <c r="M17">
-        <f>[3]epa_ghgi_2023!M17</f>
         <v>0</v>
       </c>
       <c r="N17">
-        <f>[3]epa_ghgi_2023!N17</f>
         <v>8.9285714000000002E-2</v>
       </c>
       <c r="O17">
@@ -6689,15 +6376,15 @@
       </c>
       <c r="B2">
         <f>SUMIF(raw_epa23!$A$2:$A$17,$A2, raw_epa23!N$2:N$17)</f>
-        <v>9.3793176640000002</v>
+        <v>9.3793216469999994</v>
       </c>
       <c r="C2">
         <f>B2-SQRT(SUMIF(raw_epa23!$A$2:$A$17,$A2, raw_epa23!O$2:O$17))</f>
-        <v>8.4966078366089466</v>
+        <v>8.4966118196089457</v>
       </c>
       <c r="D2">
         <f>B2+SQRT(SUMIF(raw_epa23!$A$2:$A$17,$A2, raw_epa23!P$2:P$17))</f>
-        <v>10.731707742181444</v>
+        <v>10.731711725181443</v>
       </c>
       <c r="F2" s="48"/>
     </row>
@@ -6707,15 +6394,15 @@
       </c>
       <c r="B3">
         <f>SUMIF(raw_epa23!$A$2:$A$17,$A3, raw_epa23!N$2:N$17)</f>
-        <v>9.2887503719999991</v>
+        <v>9.3045250069999987</v>
       </c>
       <c r="C3">
         <f>B3-SQRT(SUMIF(raw_epa23!$A$2:$A$17,$A3, raw_epa23!O$2:O$17))</f>
-        <v>8.0683411131801535</v>
+        <v>8.0841157481801531</v>
       </c>
       <c r="D3">
         <f>B3+SQRT(SUMIF(raw_epa23!$A$2:$A$17,$A3, raw_epa23!P$2:P$17))</f>
-        <v>10.618901875040848</v>
+        <v>10.634676510040848</v>
       </c>
       <c r="F3" s="48"/>
     </row>
@@ -6725,15 +6412,15 @@
       </c>
       <c r="B4">
         <f>SUMIF(raw_epa23!$A$2:$A$17,$A4, raw_epa23!N$2:N$17)</f>
-        <v>2.1279584960000002</v>
+        <v>2.127957484</v>
       </c>
       <c r="C4">
         <f>B4-SQRT(SUMIF(raw_epa23!$A$2:$A$17,$A4, raw_epa23!O$2:O$17))</f>
-        <v>1.9316978407361083</v>
+        <v>1.931696828736108</v>
       </c>
       <c r="D4">
         <f>B4+SQRT(SUMIF(raw_epa23!$A$2:$A$17,$A4, raw_epa23!P$2:P$17))</f>
-        <v>2.5285287145634876</v>
+        <v>2.5285277025634874</v>
       </c>
       <c r="F4" s="48"/>
     </row>
@@ -6743,15 +6430,15 @@
       </c>
       <c r="B5">
         <f>SUMIF(raw_epa23!$A$2:$A$17,$A5, raw_epa23!N$2:N$17)</f>
-        <v>4.5698875660000002</v>
+        <v>4.5698426330000004</v>
       </c>
       <c r="C5">
         <f>B5-SQRT(SUMIF(raw_epa23!$A$2:$A$17,$A5, raw_epa23!O$2:O$17))</f>
-        <v>3.6945304230000002</v>
+        <v>3.6944854900000004</v>
       </c>
       <c r="D5">
         <f>B5+SQRT(SUMIF(raw_epa23!$A$2:$A$17,$A5, raw_epa23!P$2:P$17))</f>
-        <v>5.7677447090000005</v>
+        <v>5.7676997760000006</v>
       </c>
       <c r="F5" s="48"/>
     </row>
@@ -6761,15 +6448,15 @@
       </c>
       <c r="B6">
         <f>SUMIF(raw_epa23!$A$2:$A$17,$A6, raw_epa23!N$2:N$17)</f>
-        <v>0.75347304299999995</v>
+        <v>0.75299734200000001</v>
       </c>
       <c r="C6">
         <f>B6-SQRT(SUMIF(raw_epa23!$A$2:$A$17,$A6, raw_epa23!O$2:O$17))</f>
-        <v>0.53390161399999991</v>
+        <v>0.53342591299999997</v>
       </c>
       <c r="D6">
         <f>B6+SQRT(SUMIF(raw_epa23!$A$2:$A$17,$A6, raw_epa23!P$2:P$17))</f>
-        <v>0.99575875699999994</v>
+        <v>0.995283056</v>
       </c>
       <c r="F6" s="48"/>
     </row>
@@ -6779,15 +6466,15 @@
       </c>
       <c r="B7">
         <f>SUMIF(raw_epa23!$A$2:$A$17,$A7, raw_epa23!N$2:N$17)</f>
-        <v>1.1814561160000003</v>
+        <v>1.1814416950000002</v>
       </c>
       <c r="C7">
         <f>B7-SQRT(SUMIF(raw_epa23!$A$2:$A$17,$A7, raw_epa23!O$2:O$17))</f>
-        <v>0.71042585587232132</v>
+        <v>0.71041143487232117</v>
       </c>
       <c r="D7">
         <f>B7+SQRT(SUMIF(raw_epa23!$A$2:$A$17,$A7, raw_epa23!P$2:P$17))</f>
-        <v>1.8187567547576819</v>
+        <v>1.8187423337576818</v>
       </c>
       <c r="F7" s="48"/>
     </row>
@@ -6797,15 +6484,15 @@
       </c>
       <c r="B8">
         <f>SUM(B2:B7)</f>
-        <v>27.300843257000004</v>
+        <v>27.316085808</v>
       </c>
       <c r="C8">
         <f>B8*(1-0.08)</f>
-        <v>25.116775796440006</v>
+        <v>25.130798943360002</v>
       </c>
       <c r="D8">
         <f>B8*1.12</f>
-        <v>30.576944447840006</v>
+        <v>30.594016104960005</v>
       </c>
       <c r="F8" s="48"/>
     </row>
@@ -6819,7 +6506,7 @@
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6943,7 +6630,7 @@
       </c>
       <c r="J4">
         <f>VLOOKUP(_xlfn.CONCAT("post_", Sheet2!B4), raw!A:F, 2, FALSE)/VLOOKUP(Sheet2!B4,'epa23'!A:F,2,FALSE)-1</f>
-        <v>0.1066012426976477</v>
+        <v>0.10660077277104607</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -6983,7 +6670,7 @@
       </c>
       <c r="J5">
         <f>VLOOKUP(_xlfn.CONCAT("post_", Sheet2!B5), raw!A:F, 2, FALSE)/VLOOKUP(Sheet2!B5,'epa23'!A:F,2,FALSE)-1</f>
-        <v>0.1207739558656642</v>
+        <v>0.11887382662123902</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -7023,7 +6710,7 @@
       </c>
       <c r="J6">
         <f>VLOOKUP(_xlfn.CONCAT("post_", Sheet2!B6), raw!A:F, 2, FALSE)/VLOOKUP(Sheet2!B6,'epa23'!A:F,2,FALSE)-1</f>
-        <v>-0.28221544451552127</v>
+        <v>-0.28221510315627152</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -7063,7 +6750,7 @@
       </c>
       <c r="J7">
         <f>VLOOKUP(_xlfn.CONCAT("post_", Sheet2!B7), raw!A:F, 2, FALSE)/VLOOKUP(Sheet2!B7,'epa23'!A:F,2,FALSE)-1</f>
-        <v>0.50833274355128411</v>
+        <v>0.50834757424034915</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
@@ -7103,7 +6790,7 @@
       </c>
       <c r="J8">
         <f>VLOOKUP(_xlfn.CONCAT("post_", Sheet2!B8), raw!A:F, 2, FALSE)/VLOOKUP(Sheet2!B8,'epa23'!A:F,2,FALSE)-1</f>
-        <v>-0.17496625478172145</v>
+        <v>-0.17444504526909344</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
@@ -7143,7 +6830,7 @@
       </c>
       <c r="J9">
         <f>VLOOKUP(_xlfn.CONCAT("post_", Sheet2!B9), raw!A:F, 2, FALSE)/VLOOKUP(Sheet2!B9,'epa23'!A:F,2,FALSE)-1</f>
-        <v>-6.3639984937299388E-2</v>
+        <v>-6.3628555471220372E-2</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
